--- a/sample/bybit/place_order_v2.xlsx
+++ b/sample/bybit/place_order_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\git\delphi\sample\bybit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C80A49-D093-49BF-8964-8D44C1D9331C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF2827-92D6-4403-95B6-8E16C6C43AC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="16640" windowHeight="17780" xr2:uid="{E3C6CE80-DEC7-4871-BB61-5DF8B7435D0E}"/>
+    <workbookView xWindow="2530" yWindow="0" windowWidth="16640" windowHeight="17780" xr2:uid="{E3C6CE80-DEC7-4871-BB61-5DF8B7435D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1460,6 +1460,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1468,9 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A8FD33-792C-4921-9691-FCFCC41EB976}">
   <dimension ref="B2:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1816,13 +1816,13 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1830,31 +1830,31 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5">
@@ -1871,7 +1871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="29">
+    <row r="9" spans="2:5" ht="43.5">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1914,13 +1914,13 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1928,81 +1928,81 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="29">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
+    <row r="15" spans="2:5" ht="43.5">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
+    <row r="16" spans="2:5" ht="29">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
+    <row r="20" spans="2:5" ht="29">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="2:5" ht="29">
+      <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -2010,29 +2010,29 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2040,49 +2040,49 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="2:5" ht="29">
+      <c r="B31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2090,49 +2090,49 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -2140,57 +2140,57 @@
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+    <row r="40" spans="2:5" ht="29">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="29">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+    <row r="41" spans="2:5" ht="43.5">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="29">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -2198,49 +2198,49 @@
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5" ht="29">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -2248,9 +2248,9 @@
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="4" t="s">
         <v>30</v>
       </c>
@@ -2270,13 +2270,13 @@
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -2284,41 +2284,41 @@
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="2:5" ht="29">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -2326,49 +2326,49 @@
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="17"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="17"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="17"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="17"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="17"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="2:5" ht="29">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -2376,69 +2376,69 @@
       </c>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="5"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="2:5">
@@ -2470,7 +2470,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="29">
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2484,7 +2484,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="29">
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2498,13 +2498,13 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="29">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E78" s="10" t="s">
@@ -2512,49 +2512,49 @@
       </c>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="5"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="72.5">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E84" s="10" t="s">
@@ -2562,9 +2562,9 @@
       </c>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="4" t="s">
         <v>30</v>
       </c>
@@ -2598,13 +2598,13 @@
       </c>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -2612,49 +2612,49 @@
       </c>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="29">
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
       <c r="E93" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="29">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -2662,21 +2662,21 @@
       </c>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
       <c r="E95" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="29">
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -2684,21 +2684,21 @@
       </c>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
       <c r="E97" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="29">
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="4" t="s">
@@ -2706,21 +2706,21 @@
       </c>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
       <c r="E99" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="29">
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -2728,69 +2728,69 @@
       </c>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="B64:B73"/>
+    <mergeCell ref="C64:C73"/>
+    <mergeCell ref="D64:D73"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="D37:D43"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="C12:C21"/>
     <mergeCell ref="D12:D21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="D37:D43"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="B64:B73"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="D64:D73"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E78" r:id="rId1" display="https://www.bybit.com/en-US/help-center/bybitHC_Article?language=en_US&amp;id=000001047" xr:uid="{DAC61E9D-D048-4CD9-BB62-7A985F287760}"/>

--- a/sample/bybit/place_order_v2.xlsx
+++ b/sample/bybit/place_order_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\git\delphi\sample\bybit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF2827-92D6-4403-95B6-8E16C6C43AC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F032A05-E5C6-4D71-80D3-E7C813D7217D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2530" yWindow="0" windowWidth="16640" windowHeight="17780" xr2:uid="{E3C6CE80-DEC7-4871-BB61-5DF8B7435D0E}"/>
+    <workbookView xWindow="3480" yWindow="0" windowWidth="16640" windowHeight="17780" xr2:uid="{E3C6CE80-DEC7-4871-BB61-5DF8B7435D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>Parameter</t>
   </si>
@@ -1343,6 +1343,27 @@
   </si>
   <si>
     <t>Тип ордера при срабатывании стоп-лосса. Market(по умолчанию), Limit. Для tpslMode=Full поддерживается только slOrderType=Market.</t>
+  </si>
+  <si>
+    <t>Place Order</t>
+  </si>
+  <si>
+    <t>х</t>
+  </si>
+  <si>
+    <t>Amend Order</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>Order ID. Either orderId or orderLinkId is required</t>
+  </si>
+  <si>
+    <t>Cancel Order</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1426,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1413,64 +1434,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1787,1017 +2059,1469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A8FD33-792C-4921-9691-FCFCC41EB976}">
-  <dimension ref="B2:E101"/>
+  <dimension ref="B1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="16" t="s">
+      <c r="F2" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1">
+      <c r="B3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="5" t="s">
+      <c r="F4" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="28"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="28"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="28"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" thickBot="1">
+      <c r="B8" s="31"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" thickBot="1">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="43.5">
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="44" thickBot="1">
+      <c r="B10" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="51" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" thickBot="1">
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="14" t="s">
+      <c r="F11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1">
+      <c r="B12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="16" t="s">
+      <c r="F12" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="44" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="5" t="s">
+      <c r="F13" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="28"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="28"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="43.5">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" ht="43.5">
+      <c r="B16" s="28"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="29">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" ht="29">
+      <c r="B17" s="28"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="28"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="28"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="28"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="29">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" ht="29">
+      <c r="B21" s="28"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" ht="29">
-      <c r="B22" s="16" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" thickBot="1">
+      <c r="B22" s="31"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" ht="29">
+      <c r="B23" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D23" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="44" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="28"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="57" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="16" t="s">
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D26" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="5" t="s">
+      <c r="F26" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="28"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="28"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="14" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" ht="29">
+      <c r="B29" s="28"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="28"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" ht="29">
-      <c r="B31" s="16" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" thickBot="1">
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8" ht="29">
+      <c r="B32" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D32" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E32" s="44" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="8" t="s">
+      <c r="F32" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="56"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="28"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="28"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="8" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="28"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="4" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="28"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="2:8" ht="15" thickBot="1">
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="16" t="s">
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D38" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E38" s="44" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="8" t="s">
+      <c r="F38" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="56"/>
+      <c r="H38" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="28"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="28"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" ht="29">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="2:8" ht="29">
+      <c r="B41" s="28"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" ht="43.5">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="2:8" ht="43.5">
+      <c r="B42" s="28"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="4" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="28"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="29"/>
+    </row>
+    <row r="44" spans="2:8" ht="15" thickBot="1">
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" ht="29">
-      <c r="B44" s="16" t="s">
+      <c r="F44" s="34"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="48"/>
+    </row>
+    <row r="45" spans="2:8" ht="29">
+      <c r="B45" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D45" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E45" s="58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="9" t="s">
+      <c r="F45" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="28"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="28"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="5" t="s">
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="28"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="28"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="2:5" ht="29">
-      <c r="B50" s="16" t="s">
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:8" ht="15" thickBot="1">
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="2:8" ht="29">
+      <c r="B51" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D51" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="44" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="56"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:8" ht="15" thickBot="1">
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" ht="87">
-      <c r="B52" s="1" t="s">
+      <c r="F52" s="34"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:8" ht="87.5" thickBot="1">
+      <c r="B53" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E53" s="51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="16" t="s">
+      <c r="F53" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D54" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E54" s="60" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="5" t="s">
+      <c r="F54" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="61"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="28"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="28"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="12"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="28"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="2:5" ht="29">
-      <c r="B58" s="18" t="s">
+      <c r="F57" s="12"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="2:8" ht="15" thickBot="1">
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="2:8" ht="29">
+      <c r="B59" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D59" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E59" s="44" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="18"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="18"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="8" t="s">
+      <c r="F59" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="56"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="30"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="30"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="18"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="12"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="30"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="18"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="12"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="30"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="18"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="2:5" ht="29">
-      <c r="B64" s="16" t="s">
+      <c r="F63" s="12"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="2:8" ht="15" thickBot="1">
+      <c r="B64" s="65"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="2:8" ht="29">
+      <c r="B65" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D65" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E65" s="44" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="11" t="s">
+      <c r="F65" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H65" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="28"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="5" t="s">
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="28"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="28"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="29"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="28"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="12" t="s">
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="29"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="28"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="13" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="28"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="28"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="29"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="28"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="1" t="s">
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="2:8" ht="15" thickBot="1">
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="48"/>
+    </row>
+    <row r="75" spans="2:8" ht="15" thickBot="1">
+      <c r="B75" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E75" s="51" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="1" t="s">
+      <c r="F75" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="2:8" ht="15" thickBot="1">
+      <c r="B76" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E76" s="51" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" ht="29">
-      <c r="B76" s="15" t="s">
+      <c r="F76" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="2:8" ht="29.5" thickBot="1">
+      <c r="B77" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E77" s="51" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" ht="29">
-      <c r="B77" s="15" t="s">
+      <c r="F77" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G77" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="2:8" ht="29.5" thickBot="1">
+      <c r="B78" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E78" s="51" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" ht="29">
-      <c r="B78" s="16" t="s">
+      <c r="F78" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="2:8" ht="29">
+      <c r="B79" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D79" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E79" s="67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="5" t="s">
+      <c r="F79" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G79" s="56"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="28"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="28"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="5" t="s">
+      <c r="F81" s="12"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="28"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="4" t="s">
+      <c r="F82" s="12"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="28"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="2:8" ht="15" thickBot="1">
+      <c r="B84" s="31"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" ht="72.5">
-      <c r="B84" s="16" t="s">
+      <c r="F84" s="34"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="2:8" ht="72.5">
+      <c r="B85" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D85" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E85" s="67" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="56"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="2:8" ht="15" thickBot="1">
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="14" t="s">
+      <c r="F86" s="34"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="2:8" ht="15" thickBot="1">
+      <c r="B87" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D87" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E87" s="68" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" ht="29">
-      <c r="B87" s="1" t="s">
+      <c r="F87" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" s="53"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="2:8" ht="29.5" thickBot="1">
+      <c r="B88" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D88" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E88" s="68" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="16" t="s">
+      <c r="F88" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" s="53"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D89" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E89" s="44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="8" t="s">
+      <c r="F89" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="28"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="28"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" ht="29">
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="8" t="s">
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="2:8" ht="29">
+      <c r="B92" s="28"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="4" t="s">
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="28"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="2:8" ht="15" thickBot="1">
+      <c r="B94" s="31"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" ht="29">
-      <c r="B94" s="16" t="s">
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="2:8" ht="29">
+      <c r="B95" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C95" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D95" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E95" s="44" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G95" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="2:8" ht="15" thickBot="1">
+      <c r="B96" s="31"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" ht="29">
-      <c r="B96" s="16" t="s">
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="2:8" ht="29">
+      <c r="B97" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C97" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D97" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E97" s="44" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G97" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="2:8" ht="15" thickBot="1">
+      <c r="B98" s="31"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" ht="29">
-      <c r="B98" s="16" t="s">
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="2:8" ht="29">
+      <c r="B99" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C99" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D99" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E99" s="44" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" s="56"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="2:8" ht="15" thickBot="1">
+      <c r="B100" s="31"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" ht="29">
-      <c r="B100" s="16" t="s">
+      <c r="F100" s="34"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="2:8" ht="29">
+      <c r="B101" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="D101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E101" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G101" s="16"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="2:8" ht="15" thickBot="1">
+      <c r="B102" s="31"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="33" t="s">
         <v>30</v>
       </c>
+      <c r="F102" s="34"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="B64:B73"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="D64:D73"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="D37:D43"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="D12:D21"/>
+  <mergeCells count="83">
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="H65:H74"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="F79:F84"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F89:F94"/>
+    <mergeCell ref="G89:G94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="F65:F74"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E78" r:id="rId1" display="https://www.bybit.com/en-US/help-center/bybitHC_Article?language=en_US&amp;id=000001047" xr:uid="{DAC61E9D-D048-4CD9-BB62-7A985F287760}"/>
-    <hyperlink ref="E84" r:id="rId2" display="https://www.bybit.com/en-US/help-center/bybitHC_Article?language=en_US&amp;id=000001050" xr:uid="{4673061A-D4E7-4BB3-A4E1-618AAE558A09}"/>
-    <hyperlink ref="E86" r:id="rId3" display="https://bybit-exchange.github.io/docs/v5/smp" xr:uid="{DDF1CFA8-4B70-458D-9737-74B9AF023A1E}"/>
-    <hyperlink ref="E87" r:id="rId4" display="https://bybit-exchange.github.io/docs/v5/account/set-mmp" xr:uid="{00B9C410-799F-4C45-AC93-02F87A582828}"/>
-    <hyperlink ref="E53" r:id="rId5" display="https://www.bybit.com/en-US/help-center/bybitHC_Article?language=en_US&amp;id=000001044" xr:uid="{CA7A3109-C347-46E8-B9A5-6654E63D709D}"/>
+    <hyperlink ref="E79" r:id="rId1" display="https://www.bybit.com/en-US/help-center/bybitHC_Article?language=en_US&amp;id=000001047" xr:uid="{DAC61E9D-D048-4CD9-BB62-7A985F287760}"/>
+    <hyperlink ref="E85" r:id="rId2" display="https://www.bybit.com/en-US/help-center/bybitHC_Article?language=en_US&amp;id=000001050" xr:uid="{4673061A-D4E7-4BB3-A4E1-618AAE558A09}"/>
+    <hyperlink ref="E87" r:id="rId3" display="https://bybit-exchange.github.io/docs/v5/smp" xr:uid="{DDF1CFA8-4B70-458D-9737-74B9AF023A1E}"/>
+    <hyperlink ref="E88" r:id="rId4" display="https://bybit-exchange.github.io/docs/v5/account/set-mmp" xr:uid="{00B9C410-799F-4C45-AC93-02F87A582828}"/>
+    <hyperlink ref="E54" r:id="rId5" display="https://www.bybit.com/en-US/help-center/bybitHC_Article?language=en_US&amp;id=000001044" xr:uid="{CA7A3109-C347-46E8-B9A5-6654E63D709D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/sample/bybit/place_order_v2.xlsx
+++ b/sample/bybit/place_order_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\git\delphi\sample\bybit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F032A05-E5C6-4D71-80D3-E7C813D7217D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158B36B-2CCE-4A37-8970-4D3DFB33FD57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="0" windowWidth="16640" windowHeight="17780" xr2:uid="{E3C6CE80-DEC7-4871-BB61-5DF8B7435D0E}"/>
+    <workbookView xWindow="4425" yWindow="0" windowWidth="16635" windowHeight="17775" xr2:uid="{E3C6CE80-DEC7-4871-BB61-5DF8B7435D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1564,12 +1564,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1584,9 +1578,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1629,26 +1620,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1666,29 +1639,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1729,20 +1681,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2062,1376 +2062,1443 @@
   <dimension ref="B1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B94"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="54" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="28"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="29"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="28"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="28"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="13" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1">
-      <c r="B8" s="31"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1">
-      <c r="B9" s="26" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B8" s="59"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="56"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="44" thickBot="1">
-      <c r="B10" s="49" t="s">
+    <row r="10" spans="2:8" ht="45.75" thickBot="1">
+      <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1">
-      <c r="B11" s="26" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1">
-      <c r="B12" s="54" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="28"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="28"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="13" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" ht="43.5">
-      <c r="B16" s="28"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="18" t="s">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:8" ht="45">
+      <c r="B16" s="58"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" ht="29">
-      <c r="B17" s="28"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="18" t="s">
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" ht="30">
+      <c r="B17" s="58"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="28"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="28"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="18" t="s">
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" ht="30">
+      <c r="B19" s="58"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="28"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="18" t="s">
+      <c r="B20" s="58"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" ht="29">
-      <c r="B21" s="28"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="13" t="s">
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" ht="30">
+      <c r="B21" s="58"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1">
-      <c r="B22" s="31"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="2:8" ht="29">
-      <c r="B23" s="41" t="s">
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B22" s="59"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" ht="30">
+      <c r="B23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="28"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="17" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" ht="15" thickBot="1">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="57" t="s">
+      <c r="F24" s="53"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B25" s="59"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="28"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="28"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="13" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" ht="29">
-      <c r="B29" s="28"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="19" t="s">
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8" ht="30">
+      <c r="B29" s="58"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="28"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="13" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:8" ht="15" thickBot="1">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="2:8" ht="29">
-      <c r="B32" s="41" t="s">
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B31" s="59"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" ht="30">
+      <c r="B32" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="56"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="28"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="7"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="28"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="20" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="7"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="28"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="20" t="s">
+      <c r="B35" s="58"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="7"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="28"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="2:8" ht="15" thickBot="1">
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33" t="s">
+      <c r="B36" s="58"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B37" s="59"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="8"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="46" t="s">
+      <c r="G38" s="40"/>
+      <c r="H38" s="54" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="28"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="29"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="55"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="28"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="20" t="s">
+      <c r="B40" s="58"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="29"/>
-    </row>
-    <row r="41" spans="2:8" ht="29">
-      <c r="B41" s="28"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="20" t="s">
+      <c r="F40" s="53"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="55"/>
+    </row>
+    <row r="41" spans="2:8" ht="30">
+      <c r="B41" s="58"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="29"/>
-    </row>
-    <row r="42" spans="2:8" ht="43.5">
-      <c r="B42" s="28"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="20" t="s">
+      <c r="F41" s="53"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="55"/>
+    </row>
+    <row r="42" spans="2:8" ht="45">
+      <c r="B42" s="58"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="29"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="28"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="29"/>
-    </row>
-    <row r="44" spans="2:8" ht="15" thickBot="1">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="55"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B44" s="59"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="48"/>
-    </row>
-    <row r="45" spans="2:8" ht="29">
-      <c r="B45" s="41" t="s">
+      <c r="F44" s="52"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="56"/>
+    </row>
+    <row r="45" spans="2:8" ht="30">
+      <c r="B45" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="45" t="s">
+      <c r="F45" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="6"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="28"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="21" t="s">
+      <c r="B46" s="58"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="7"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="28"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="13" t="s">
+      <c r="B47" s="58"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="7"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="28"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="7"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="28"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="13" t="s">
+      <c r="B49" s="58"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="2:8" ht="15" thickBot="1">
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="2:8" ht="29">
-      <c r="B51" s="41" t="s">
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B50" s="59"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:8" ht="30">
+      <c r="B51" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="45" t="s">
+      <c r="F51" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="56"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="2:8" ht="15" thickBot="1">
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33" t="s">
+      <c r="G51" s="40"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B52" s="59"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="2:8" ht="87.5" thickBot="1">
-      <c r="B53" s="49" t="s">
+      <c r="F52" s="52"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" ht="90.75" thickBot="1">
+      <c r="B53" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="51" t="s">
+      <c r="E53" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G53" s="59" t="s">
+      <c r="G53" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F54" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G54" s="61"/>
-      <c r="H54" s="6"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="28"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="7"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="28"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="4" t="s">
+      <c r="B56" s="58"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="7"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="28"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="4" t="s">
+      <c r="B57" s="58"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="2:8" ht="15" thickBot="1">
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="2:8" ht="29">
-      <c r="B59" s="64" t="s">
+      <c r="F57" s="53"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B58" s="59"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:8" ht="30">
+      <c r="B59" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="44" t="s">
+      <c r="E59" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="45" t="s">
+      <c r="F59" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="6"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="30"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="7"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="30"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="20" t="s">
+      <c r="B61" s="67"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="7"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="30"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="20" t="s">
+      <c r="B62" s="67"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="7"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="30"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="20" t="s">
+      <c r="B63" s="67"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="2:8" ht="15" thickBot="1">
-      <c r="B64" s="65"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="2:8" ht="29">
-      <c r="B65" s="41" t="s">
+      <c r="F63" s="53"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B64" s="68"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" ht="30">
+      <c r="B65" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="44" t="s">
+      <c r="E65" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="45" t="s">
+      <c r="F65" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G65" s="45" t="s">
+      <c r="G65" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="H65" s="46" t="s">
+      <c r="H65" s="54" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="28"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="23" t="s">
+      <c r="B66" s="58"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="29"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="55"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="28"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="29"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="55"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="28"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="13" t="s">
+      <c r="B68" s="58"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="29"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="55"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="28"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="13" t="s">
+      <c r="B69" s="58"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="29"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="55"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="28"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="24" t="s">
+      <c r="B70" s="58"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="29"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="55"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="28"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="29"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="55"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="28"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="25" t="s">
+      <c r="B72" s="58"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="29"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="55"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="28"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="13" t="s">
+      <c r="B73" s="58"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="29"/>
-    </row>
-    <row r="74" spans="2:8" ht="15" thickBot="1">
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="48"/>
-    </row>
-    <row r="75" spans="2:8" ht="15" thickBot="1">
-      <c r="B75" s="49" t="s">
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="55"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B74" s="59"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="56"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B75" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="51" t="s">
+      <c r="E75" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="52" t="s">
+      <c r="F75" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G75" s="59" t="s">
+      <c r="G75" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="2:8" ht="15" thickBot="1">
-      <c r="B76" s="49" t="s">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B76" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="51" t="s">
+      <c r="E76" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F76" s="52" t="s">
+      <c r="F76" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G76" s="59" t="s">
+      <c r="G76" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="2:8" ht="29.5" thickBot="1">
-      <c r="B77" s="66" t="s">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B77" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="52" t="s">
+      <c r="F77" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G77" s="52" t="s">
+      <c r="G77" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="2:8" ht="29.5" thickBot="1">
-      <c r="B78" s="66" t="s">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B78" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="51" t="s">
+      <c r="E78" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="52" t="s">
+      <c r="F78" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G78" s="52" t="s">
+      <c r="G78" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="2:8" ht="29">
-      <c r="B79" s="41" t="s">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="2:8" ht="30">
+      <c r="B79" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C79" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E79" s="67" t="s">
+      <c r="E79" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="45" t="s">
+      <c r="F79" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="56"/>
-      <c r="H79" s="6"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="28"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="7"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="5"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="28"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="13" t="s">
+      <c r="B81" s="58"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="7"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="5"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="28"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="13" t="s">
+      <c r="B82" s="58"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="7"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="5"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="28"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="2:8" ht="15" thickBot="1">
-      <c r="B84" s="31"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="33" t="s">
+      <c r="B83" s="58"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B84" s="59"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F84" s="34"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="2:8" ht="72.5">
-      <c r="B85" s="41" t="s">
+      <c r="F84" s="52"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="2:8" ht="75">
+      <c r="B85" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="43" t="s">
+      <c r="D85" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E85" s="67" t="s">
+      <c r="E85" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F85" s="45" t="s">
+      <c r="F85" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G85" s="56"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="2:8" ht="15" thickBot="1">
-      <c r="B86" s="31"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="33" t="s">
+      <c r="G85" s="40"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B86" s="59"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F86" s="34"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="2:8" ht="15" thickBot="1">
-      <c r="B87" s="54" t="s">
+      <c r="F86" s="52"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B87" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="68" t="s">
+      <c r="E87" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F87" s="52" t="s">
+      <c r="F87" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G87" s="53"/>
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="2:8" ht="29.5" thickBot="1">
-      <c r="B88" s="49" t="s">
+      <c r="G87" s="37"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B88" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E88" s="68" t="s">
+      <c r="E88" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="52" t="s">
+      <c r="F88" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G88" s="53"/>
-      <c r="H88" s="5"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="3"/>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="43" t="s">
+      <c r="D89" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="44" t="s">
+      <c r="E89" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F89" s="45" t="s">
+      <c r="F89" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="45" t="s">
+      <c r="G89" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="H89" s="6"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="28"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="28"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="20" t="s">
+      <c r="B90" s="58"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="2:8" ht="27.75">
+      <c r="B91" s="58"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="2:8" ht="29">
-      <c r="B92" s="28"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="20" t="s">
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="2:8" ht="30">
+      <c r="B92" s="58"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="7"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="5"/>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="28"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="94" spans="2:8" ht="15" thickBot="1">
-      <c r="B94" s="31"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="33" t="s">
+      <c r="B93" s="58"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B94" s="59"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="2:8" ht="29">
-      <c r="B95" s="41" t="s">
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="2:8" ht="30">
+      <c r="B95" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="44" t="s">
+      <c r="E95" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F95" s="45" t="s">
+      <c r="F95" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G95" s="45" t="s">
+      <c r="G95" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="2:8" ht="15" thickBot="1">
-      <c r="B96" s="31"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="33" t="s">
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B96" s="59"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="2:8" ht="29">
-      <c r="B97" s="41" t="s">
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="2:8" ht="30">
+      <c r="B97" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E97" s="44" t="s">
+      <c r="E97" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="F97" s="45" t="s">
+      <c r="F97" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G97" s="45" t="s">
+      <c r="G97" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="2:8" ht="15" thickBot="1">
-      <c r="B98" s="31"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="33" t="s">
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B98" s="59"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="8"/>
-    </row>
-    <row r="99" spans="2:8" ht="29">
-      <c r="B99" s="41" t="s">
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="2:8" ht="30">
+      <c r="B99" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="43" t="s">
+      <c r="D99" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E99" s="44" t="s">
+      <c r="E99" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F99" s="45" t="s">
+      <c r="F99" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G99" s="56"/>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="2:8" ht="15" thickBot="1">
-      <c r="B100" s="31"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="33" t="s">
+      <c r="G99" s="40"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B100" s="59"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F100" s="34"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="8"/>
-    </row>
-    <row r="101" spans="2:8" ht="29">
-      <c r="B101" s="28" t="s">
+      <c r="F100" s="52"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="2:8" ht="30">
+      <c r="B101" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F101" s="12" t="s">
+      <c r="F101" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="G101" s="16"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="2:8" ht="15" thickBot="1">
-      <c r="B102" s="31"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="33" t="s">
+      <c r="G101" s="13"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B102" s="59"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F102" s="34"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="8"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="F65:F74"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="F38:F44"/>
     <mergeCell ref="F99:F100"/>
     <mergeCell ref="F101:F102"/>
     <mergeCell ref="H4:H8"/>
@@ -3448,73 +3515,6 @@
     <mergeCell ref="F95:F96"/>
     <mergeCell ref="F97:F98"/>
     <mergeCell ref="G97:G98"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="F65:F74"/>
-    <mergeCell ref="G65:G74"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F32:F37"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="D65:D74"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="D79:D84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E79" r:id="rId1" display="https://www.bybit.com/en-US/help-center/bybitHC_Article?language=en_US&amp;id=000001047" xr:uid="{DAC61E9D-D048-4CD9-BB62-7A985F287760}"/>
